--- a/openMp data.xlsx
+++ b/openMp data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\cis 520 operating systems\project 4\CIS520-Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{377CB30E-3838-4394-9609-7CAAF8655142}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3576817-77AE-4610-AF02-82AA5A50D419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
   </bookViews>
@@ -31,6 +31,23 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>size:</t>
+  </si>
+  <si>
+    <t>cores:</t>
+  </si>
+  <si>
+    <t>runtime:</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,12 +397,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799E4B0-37D3-4783-AEDF-BBAA4507CBDC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.47265625" customWidth="1"/>
+    <col min="3" max="3" width="16.89453125" customWidth="1"/>
+    <col min="4" max="4" width="15.3125" customWidth="1"/>
+    <col min="5" max="5" width="15.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4930.491</v>
+      </c>
+      <c r="C4">
+        <v>272.01400000000001</v>
+      </c>
+      <c r="D4">
+        <v>301.38099999999997</v>
+      </c>
+      <c r="E4">
+        <v>322.714</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/openMp data.xlsx
+++ b/openMp data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\cis 520 operating systems\project 4\CIS520-Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3576817-77AE-4610-AF02-82AA5A50D419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D7800-E897-4982-A87F-5A7261A3CBB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
+    <workbookView xWindow="79830" yWindow="3480" windowWidth="21600" windowHeight="11370" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,28 +34,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>MPI</t>
   </si>
   <si>
-    <t>size:</t>
-  </si>
-  <si>
-    <t>cores:</t>
-  </si>
-  <si>
-    <t>runtime:</t>
+    <t>1 cpu</t>
+  </si>
+  <si>
+    <t>2 cpu</t>
+  </si>
+  <si>
+    <t>3 cpu</t>
+  </si>
+  <si>
+    <t>4 cpu</t>
+  </si>
+  <si>
+    <t>1 chunk</t>
+  </si>
+  <si>
+    <t>2 chunk</t>
+  </si>
+  <si>
+    <t>3 chunk</t>
+  </si>
+  <si>
+    <t>4 chunk</t>
+  </si>
+  <si>
+    <t>OpenMP</t>
+  </si>
+  <si>
+    <t>Pthreads</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,6 +125,86 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4DCEF7A-6C87-4A98-B10C-27D901B66086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8724900" y="514350"/>
+          <a:ext cx="3800475" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>run</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> times are in the middle, cpu count is on the top and size is on the left</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799E4B0-37D3-4783-AEDF-BBAA4507CBDC}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -412,62 +519,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
+        <v>181.989</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>4930.491</v>
-      </c>
-      <c r="C4">
-        <v>272.01400000000001</v>
-      </c>
-      <c r="D4">
-        <v>301.38099999999997</v>
-      </c>
-      <c r="E4">
-        <v>322.714</v>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/openMp data.xlsx
+++ b/openMp data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\cis 520 operating systems\project 4\CIS520-Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902D7800-E897-4982-A87F-5A7261A3CBB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263F7CA-B449-4BD7-9B51-50C96B0EFD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79830" yWindow="3480" windowWidth="21600" windowHeight="11370" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -544,25 +544,52 @@
       <c r="B3">
         <v>181.989</v>
       </c>
+      <c r="C3">
+        <v>107.068</v>
+      </c>
+      <c r="D3">
+        <v>306.50700000000001</v>
+      </c>
+      <c r="E3">
+        <v>193.54300000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>141.899</v>
+      </c>
+      <c r="D4">
+        <v>283.81200000000001</v>
+      </c>
+      <c r="E4">
+        <v>193.50399999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="D5">
+        <v>283.36599999999999</v>
+      </c>
+      <c r="E5">
+        <v>201.173</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="E6">
+        <v>210.74700000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -583,25 +610,73 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10">
+        <v>10935.186</v>
+      </c>
+      <c r="C10">
+        <v>13144.576999999999</v>
+      </c>
+      <c r="D10">
+        <v>11079.049000000001</v>
+      </c>
+      <c r="E10">
+        <v>11263.654</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>6</v>
       </c>
+      <c r="B11">
+        <v>10834.082</v>
+      </c>
+      <c r="C11">
+        <v>10047.459000000001</v>
+      </c>
+      <c r="D11">
+        <v>8657.5939999999991</v>
+      </c>
+      <c r="E11">
+        <v>8731.8410000000003</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
+      <c r="B12">
+        <v>10754.487999999999</v>
+      </c>
+      <c r="C12">
+        <v>9960.7639999999992</v>
+      </c>
+      <c r="D12">
+        <v>7771.6080000000002</v>
+      </c>
+      <c r="E12">
+        <v>7869.1540000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>10733.166999999999</v>
+      </c>
+      <c r="C13">
+        <v>9937.4840000000004</v>
+      </c>
+      <c r="D13">
+        <v>8026.3519999999999</v>
+      </c>
+      <c r="E13">
+        <v>7576.4350000000004</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -618,24 +693,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17">
+        <v>13202.816000000001</v>
+      </c>
+      <c r="C17">
+        <v>10939.316999999999</v>
+      </c>
+      <c r="D17">
+        <v>10944.328</v>
+      </c>
+      <c r="E17">
+        <v>12312.293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18">
+        <v>12816.771000000001</v>
+      </c>
+      <c r="C18">
+        <v>7851.04</v>
+      </c>
+      <c r="D18">
+        <v>7869.4539999999997</v>
+      </c>
+      <c r="E18">
+        <v>9385.1319999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>12164.41</v>
+      </c>
+      <c r="C19">
+        <v>7889.4960000000001</v>
+      </c>
+      <c r="D19">
+        <v>6863.915</v>
+      </c>
+      <c r="E19">
+        <v>6370.5429999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
+      </c>
+      <c r="B20">
+        <v>11925.103999999999</v>
+      </c>
+      <c r="C20">
+        <v>7908.402</v>
+      </c>
+      <c r="D20">
+        <v>6961.3220000000001</v>
+      </c>
+      <c r="E20">
+        <v>8068.44</v>
       </c>
     </row>
   </sheetData>

--- a/openMp data.xlsx
+++ b/openMp data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\cis 520 operating systems\project 4\CIS520-Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263F7CA-B449-4BD7-9B51-50C96B0EFD73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16139E11-ED42-41F4-8669-7BDB44C44C54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
+    <workbookView xWindow="68490" yWindow="1245" windowWidth="27000" windowHeight="14355" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
   <si>
     <t>MPI</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Pthreads</t>
+  </si>
+  <si>
+    <t>not possible</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799E4B0-37D3-4783-AEDF-BBAA4507CBDC}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -558,6 +561,9 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
       <c r="C4">
         <v>141.899</v>
       </c>
@@ -572,6 +578,12 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
       <c r="D5">
         <v>283.36599999999999</v>
       </c>
@@ -583,6 +595,15 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6">
         <v>210.74700000000001</v>
       </c>
@@ -759,6 +780,267 @@
       </c>
       <c r="E20">
         <v>8068.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0.5</v>
+      </c>
+      <c r="D33">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E40">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>0.33333299999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/openMp data.xlsx
+++ b/openMp data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\cis 520 operating systems\project 4\CIS520-Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16139E11-ED42-41F4-8669-7BDB44C44C54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09303555-40FA-4DF2-93CE-5EEE7AFF2AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68490" yWindow="1245" windowWidth="27000" windowHeight="14355" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
+    <workbookView xWindow="59400" yWindow="1245" windowWidth="27000" windowHeight="14355" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
   <si>
     <t>MPI</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>not possible</t>
+  </si>
+  <si>
+    <t>8 cpu</t>
+  </si>
+  <si>
+    <t>16 cpu</t>
+  </si>
+  <si>
+    <t>32 cpu</t>
   </si>
 </sst>
 </file>
@@ -134,16 +143,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>407670</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -158,8 +167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8724900" y="514350"/>
-          <a:ext cx="3800475" cy="1743075"/>
+          <a:off x="7019925" y="3867150"/>
+          <a:ext cx="3798570" cy="1741170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3799E4B0-37D3-4783-AEDF-BBAA4507CBDC}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -519,14 +528,16 @@
     <col min="3" max="3" width="16.89453125" customWidth="1"/>
     <col min="4" max="4" width="15.3125" customWidth="1"/>
     <col min="5" max="5" width="15.9453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7890625" customWidth="1"/>
+    <col min="7" max="8" width="17.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -539,8 +550,17 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -557,7 +577,7 @@
         <v>193.54300000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -574,7 +594,7 @@
         <v>193.50399999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -591,7 +611,7 @@
         <v>201.173</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -608,12 +628,12 @@
         <v>210.74700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -627,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -644,7 +664,7 @@
         <v>11263.654</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -661,7 +681,7 @@
         <v>8731.8410000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -678,7 +698,7 @@
         <v>7869.1540000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -695,12 +715,12 @@
         <v>7576.4350000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>1</v>
       </c>

--- a/openMp data.xlsx
+++ b/openMp data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grant\Desktop\cis 520 operating systems\project 4\CIS520-Project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09303555-40FA-4DF2-93CE-5EEE7AFF2AD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5D39BF-24A9-4D67-9620-01B6FD90D486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59400" yWindow="1245" windowWidth="27000" windowHeight="14355" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="426" xr2:uid="{7E200383-2EA6-4A53-9E09-EF7C14D14A1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
   <si>
     <t>MPI</t>
   </si>
@@ -139,20 +139,2687 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MPI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="200"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="20"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>181.989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107.068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>306.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.54300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>223.941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.60599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108.36199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D4E-4F90-90D6-1C78A003561E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>193.50399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228.083</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.03899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>118.57299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D4E-4F90-90D6-1C78A003561E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>283.36599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201.173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>244.482</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.37899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.47399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D4E-4F90-90D6-1C78A003561E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>210.74700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240.61600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.47300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.94999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D4E-4F90-90D6-1C78A003561E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="8619903"/>
+        <c:axId val="8618239"/>
+        <c:axId val="13581391"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="8619903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8618239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8618239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8619903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="13581391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8618239"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OpenMP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="200"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="40"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10935.186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13144.576999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11079.049000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11263.654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10741.235000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10322.699000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11280.611999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8581-4466-AB72-540168322241}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10834.082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10047.459000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8657.5939999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8731.8410000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7776.7669999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8023.8530000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9089.4920000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8581-4466-AB72-540168322241}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10754.487999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9960.7639999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7771.6080000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7869.1540000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6760.9369999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7658.0910000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8171.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8581-4466-AB72-540168322241}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$9:$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10733.166999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9937.4840000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8026.3519999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7576.4350000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6253.9080000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7201.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8095.0249999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8581-4466-AB72-540168322241}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="8617823"/>
+        <c:axId val="8616991"/>
+        <c:axId val="54435039"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="8617823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8616991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="8616991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8617823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="54435039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8616991"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pthreads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="20"/>
+      <c:rotY val="200"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="20"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:surface3DChart>
+        <c:wireframe val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13202.816000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10939.316999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10944.328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12312.293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10555.937</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11057.213</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10516.665000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8EF-4743-80F7-E9001DE64F02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12816.771000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7851.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7869.4539999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9385.1319999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8080.3050000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8297.7710000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7599.5169999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8EF-4743-80F7-E9001DE64F02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>12164.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7889.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6863.915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6370.5429999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7281.2520000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7529.5410000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9049.7639999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8EF-4743-80F7-E9001DE64F02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 chunk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln/>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$16:$H$16</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 cpu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cpu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cpu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cpu</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8 cpu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16 cpu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32 cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>11925.103999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7908.402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6961.3220000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8068.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6916.8739999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7086.2380000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7044.3119999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8EF-4743-80F7-E9001DE64F02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:bandFmts>
+          <c:bandFmt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+          <c:bandFmt>
+            <c:idx val="14"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln/>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:bandFmt>
+        </c:bandFmts>
+        <c:axId val="14401503"/>
+        <c:axId val="14402335"/>
+        <c:axId val="11904607"/>
+      </c:surface3DChart>
+      <c:catAx>
+        <c:axId val="14401503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14402335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="14402335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14401503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="11904607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14402335"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>407670</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -167,8 +2834,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="3867150"/>
-          <a:ext cx="3798570" cy="1741170"/>
+          <a:off x="9763125" y="179070"/>
+          <a:ext cx="4429125" cy="1744980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -210,10 +2877,130 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> times are in the middle, cpu count is on the top and size is on the left</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>on the pthreads graph the lowest value is the valey at 4cpu and 3 chunks. </a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>360045</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1A8819-C3FC-4091-B5A4-BD13BF9F2F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>541972</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10477</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72E471B-FD54-4F65-A7D9-FFC95A13744D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246697</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>343852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29527</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A0065A-CAD6-4B2B-8C57-2635ACE6EACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -519,7 +3306,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -576,6 +3363,15 @@
       <c r="E3">
         <v>193.54300000000001</v>
       </c>
+      <c r="F3">
+        <v>223.941</v>
+      </c>
+      <c r="G3">
+        <v>159.60599999999999</v>
+      </c>
+      <c r="H3">
+        <v>108.36199999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -593,6 +3389,15 @@
       <c r="E4">
         <v>193.50399999999999</v>
       </c>
+      <c r="F4">
+        <v>228.083</v>
+      </c>
+      <c r="G4">
+        <v>141.03899999999999</v>
+      </c>
+      <c r="H4">
+        <v>118.57299999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -610,6 +3415,15 @@
       <c r="E5">
         <v>201.173</v>
       </c>
+      <c r="F5">
+        <v>244.482</v>
+      </c>
+      <c r="G5">
+        <v>158.37899999999999</v>
+      </c>
+      <c r="H5">
+        <v>133.47399999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -627,6 +3441,15 @@
       <c r="E6">
         <v>210.74700000000001</v>
       </c>
+      <c r="F6">
+        <v>240.61600000000001</v>
+      </c>
+      <c r="G6">
+        <v>186.47300000000001</v>
+      </c>
+      <c r="H6">
+        <v>147.94999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
@@ -646,6 +3469,15 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
@@ -663,6 +3495,15 @@
       <c r="E10">
         <v>11263.654</v>
       </c>
+      <c r="F10">
+        <v>10741.235000000001</v>
+      </c>
+      <c r="G10">
+        <v>10322.699000000001</v>
+      </c>
+      <c r="H10">
+        <v>11280.611999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
@@ -680,6 +3521,15 @@
       <c r="E11">
         <v>8731.8410000000003</v>
       </c>
+      <c r="F11">
+        <v>7776.7669999999998</v>
+      </c>
+      <c r="G11">
+        <v>8023.8530000000001</v>
+      </c>
+      <c r="H11">
+        <v>9089.4920000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
@@ -697,6 +3547,15 @@
       <c r="E12">
         <v>7869.1540000000005</v>
       </c>
+      <c r="F12">
+        <v>6760.9369999999999</v>
+      </c>
+      <c r="G12">
+        <v>7658.0910000000003</v>
+      </c>
+      <c r="H12">
+        <v>8171.69</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -714,6 +3573,15 @@
       <c r="E13">
         <v>7576.4350000000004</v>
       </c>
+      <c r="F13">
+        <v>6253.9080000000004</v>
+      </c>
+      <c r="G13">
+        <v>7201.84</v>
+      </c>
+      <c r="H13">
+        <v>8095.0249999999996</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" t="s">
@@ -733,8 +3601,17 @@
       <c r="E16" t="s">
         <v>4</v>
       </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -750,8 +3627,17 @@
       <c r="E17">
         <v>12312.293</v>
       </c>
+      <c r="F17">
+        <v>10555.937</v>
+      </c>
+      <c r="G17">
+        <v>11057.213</v>
+      </c>
+      <c r="H17">
+        <v>10516.665000000001</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -767,8 +3653,17 @@
       <c r="E18">
         <v>9385.1319999999996</v>
       </c>
+      <c r="F18">
+        <v>8080.3050000000003</v>
+      </c>
+      <c r="G18">
+        <v>8297.7710000000006</v>
+      </c>
+      <c r="H18">
+        <v>7599.5169999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -784,8 +3679,17 @@
       <c r="E19">
         <v>6370.5429999999997</v>
       </c>
+      <c r="F19">
+        <v>7281.2520000000004</v>
+      </c>
+      <c r="G19">
+        <v>7529.5410000000002</v>
+      </c>
+      <c r="H19">
+        <v>9049.7639999999992</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -801,13 +3705,22 @@
       <c r="E20">
         <v>8068.44</v>
       </c>
+      <c r="F20">
+        <v>6916.8739999999998</v>
+      </c>
+      <c r="G20">
+        <v>7086.2380000000003</v>
+      </c>
+      <c r="H20">
+        <v>7044.3119999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>1</v>
       </c>
@@ -821,7 +3734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -838,7 +3751,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -855,7 +3768,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -872,7 +3785,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -889,12 +3802,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -908,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>5</v>
       </c>
